--- a/샘플데이터/BROCOLLI PRODUCT SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI PRODUCT SAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooyu\Documents\카카오톡 받은 파일\샘플데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Team_broccoli\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -333,86 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f20201020.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20201020.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f20201021.img</t>
-  </si>
-  <si>
-    <t>f20201022.img</t>
-  </si>
-  <si>
-    <t>f20201023.img</t>
-  </si>
-  <si>
-    <t>f20201024.img</t>
-  </si>
-  <si>
-    <t>f20201025.img</t>
-  </si>
-  <si>
-    <t>f20201026.img</t>
-  </si>
-  <si>
-    <t>f20201027.img</t>
-  </si>
-  <si>
-    <t>f20201028.img</t>
-  </si>
-  <si>
-    <t>s20201021.img</t>
-  </si>
-  <si>
-    <t>s20201022.img</t>
-  </si>
-  <si>
-    <t>s20201023.img</t>
-  </si>
-  <si>
-    <t>s20201024.img</t>
-  </si>
-  <si>
-    <t>s20201025.img</t>
-  </si>
-  <si>
-    <t>s20201026.img</t>
-  </si>
-  <si>
-    <t>s20201027.img</t>
-  </si>
-  <si>
-    <t>s20201028.img</t>
-  </si>
-  <si>
-    <t>th20201020.img</t>
-  </si>
-  <si>
-    <t>th20201021.img</t>
-  </si>
-  <si>
-    <t>th20201022.img</t>
-  </si>
-  <si>
-    <t>th20201023.img</t>
-  </si>
-  <si>
-    <t>th20201024.img</t>
-  </si>
-  <si>
-    <t>th20201025.img</t>
-  </si>
-  <si>
-    <t>th20201026.img</t>
-  </si>
-  <si>
-    <t>th20201027.img</t>
-  </si>
-  <si>
     <t>샛별배송</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,11 +341,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>th20201028.img</t>
+    <t>30C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30C2</t>
+    <t>resources/product_upfiles/ f20201020.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ f20201021.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ f20201022.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ f20201023.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ f20201024.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ f20201025.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ f20201026.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ f20201027.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ f20201028.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ s20201020.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ s20201021.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ s20201022.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ s20201023.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ s20201024.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ s20201025.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ s20201026.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ s20201027.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/ s20201028.jpg</t>
+  </si>
+  <si>
+    <t>resources/thumbnail_upfiles/ th20201020.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/thumbnail_upfiles/ th20201021.jpg</t>
+  </si>
+  <si>
+    <t>resources/thumbnail_upfiles/ th20201022.jpg</t>
+  </si>
+  <si>
+    <t>resources/thumbnail_upfiles/ th20201023.jpg</t>
+  </si>
+  <si>
+    <t>resources/thumbnail_upfiles/ th20201024.jpg</t>
+  </si>
+  <si>
+    <t>resources/thumbnail_upfiles/ th20201025.jpg</t>
+  </si>
+  <si>
+    <t>resources/thumbnail_upfiles/ th20201026.jpg</t>
+  </si>
+  <si>
+    <t>resources/thumbnail_upfiles/ th20201027.jpg</t>
+  </si>
+  <si>
+    <t>resources/thumbnail_upfiles/ th20201028.jpg</t>
   </si>
 </sst>
 </file>
@@ -792,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="I141" workbookViewId="0">
+      <selection activeCell="P168" sqref="P168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -804,8 +805,8 @@
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.375" bestFit="1" customWidth="1"/>
@@ -817,7 +818,7 @@
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -906,10 +907,10 @@
         <v>5000</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -936,7 +937,7 @@
         <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
         <v>30</v>
@@ -945,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -959,7 +960,7 @@
         <v>54</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -971,10 +972,10 @@
         <v>7000</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I3">
         <v>95</v>
@@ -1001,7 +1002,7 @@
         <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R3" t="s">
         <v>30</v>
@@ -1010,7 +1011,7 @@
         <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U3">
         <v>100</v>
@@ -1024,7 +1025,7 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -1036,10 +1037,10 @@
         <v>8500</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I4">
         <v>45</v>
@@ -1066,7 +1067,7 @@
         <v>68</v>
       </c>
       <c r="Q4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
@@ -1075,7 +1076,7 @@
         <v>32</v>
       </c>
       <c r="T4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U4">
         <v>100</v>
@@ -1089,7 +1090,7 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
@@ -1101,10 +1102,10 @@
         <v>7500</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I5">
         <v>75</v>
@@ -1131,7 +1132,7 @@
         <v>72</v>
       </c>
       <c r="Q5" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s">
         <v>30</v>
@@ -1140,7 +1141,7 @@
         <v>32</v>
       </c>
       <c r="T5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U5">
         <v>100</v>
@@ -1154,7 +1155,7 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>75</v>
@@ -1166,10 +1167,10 @@
         <v>14310</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I6">
         <v>42</v>
@@ -1196,7 +1197,7 @@
         <v>76</v>
       </c>
       <c r="Q6" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -1205,7 +1206,7 @@
         <v>32</v>
       </c>
       <c r="T6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U6">
         <v>100</v>
@@ -1216,10 +1217,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -1231,10 +1232,10 @@
         <v>12500</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I7">
         <v>58</v>
@@ -1261,7 +1262,7 @@
         <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R7" t="s">
         <v>41</v>
@@ -1270,7 +1271,7 @@
         <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1284,7 +1285,7 @@
         <v>58</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
@@ -1296,10 +1297,10 @@
         <v>13500</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I8">
         <v>45</v>
@@ -1326,7 +1327,7 @@
         <v>45</v>
       </c>
       <c r="Q8" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
@@ -1335,7 +1336,7 @@
         <v>32</v>
       </c>
       <c r="T8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1349,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>78</v>
@@ -1361,10 +1362,10 @@
         <v>3900</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1391,7 +1392,7 @@
         <v>79</v>
       </c>
       <c r="Q9" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R9" t="s">
         <v>30</v>
@@ -1400,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="T9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1426,10 +1427,10 @@
         <v>6500</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I10">
         <v>75</v>
@@ -1456,7 +1457,7 @@
         <v>51</v>
       </c>
       <c r="Q10" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R10" t="s">
         <v>52</v>
@@ -1465,7 +1466,7 @@
         <v>32</v>
       </c>
       <c r="T10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1491,10 +1492,10 @@
         <v>5000</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -1521,7 +1522,7 @@
         <v>62</v>
       </c>
       <c r="Q11" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
@@ -1530,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="T11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1556,10 +1557,10 @@
         <v>7000</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I12">
         <v>95</v>
@@ -1586,7 +1587,7 @@
         <v>64</v>
       </c>
       <c r="Q12" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s">
         <v>30</v>
@@ -1595,7 +1596,7 @@
         <v>31</v>
       </c>
       <c r="T12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U12">
         <v>100</v>
@@ -1609,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>65</v>
@@ -1621,10 +1622,10 @@
         <v>8500</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I13">
         <v>45</v>
@@ -1651,7 +1652,7 @@
         <v>68</v>
       </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R13" t="s">
         <v>30</v>
@@ -1660,7 +1661,7 @@
         <v>32</v>
       </c>
       <c r="T13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U13">
         <v>100</v>
@@ -1674,7 +1675,7 @@
         <v>56</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>69</v>
@@ -1686,10 +1687,10 @@
         <v>7500</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I14">
         <v>75</v>
@@ -1716,7 +1717,7 @@
         <v>72</v>
       </c>
       <c r="Q14" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
         <v>30</v>
@@ -1725,7 +1726,7 @@
         <v>32</v>
       </c>
       <c r="T14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U14">
         <v>100</v>
@@ -1739,7 +1740,7 @@
         <v>57</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>75</v>
@@ -1751,10 +1752,10 @@
         <v>14310</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I15">
         <v>42</v>
@@ -1781,7 +1782,7 @@
         <v>76</v>
       </c>
       <c r="Q15" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R15" t="s">
         <v>30</v>
@@ -1790,7 +1791,7 @@
         <v>32</v>
       </c>
       <c r="T15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U15">
         <v>100</v>
@@ -1801,10 +1802,10 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -1816,10 +1817,10 @@
         <v>12500</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I16">
         <v>58</v>
@@ -1846,7 +1847,7 @@
         <v>44</v>
       </c>
       <c r="Q16" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R16" t="s">
         <v>41</v>
@@ -1855,7 +1856,7 @@
         <v>40</v>
       </c>
       <c r="T16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1869,7 +1870,7 @@
         <v>58</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -1881,10 +1882,10 @@
         <v>13500</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I17">
         <v>45</v>
@@ -1911,7 +1912,7 @@
         <v>45</v>
       </c>
       <c r="Q17" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R17" t="s">
         <v>30</v>
@@ -1920,7 +1921,7 @@
         <v>32</v>
       </c>
       <c r="T17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1934,7 +1935,7 @@
         <v>59</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
         <v>78</v>
@@ -1946,10 +1947,10 @@
         <v>3900</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1976,7 +1977,7 @@
         <v>79</v>
       </c>
       <c r="Q18" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R18" t="s">
         <v>30</v>
@@ -1985,7 +1986,7 @@
         <v>47</v>
       </c>
       <c r="T18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1999,7 +2000,7 @@
         <v>77</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
@@ -2011,10 +2012,10 @@
         <v>6500</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I19">
         <v>75</v>
@@ -2041,7 +2042,7 @@
         <v>51</v>
       </c>
       <c r="Q19" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R19" t="s">
         <v>52</v>
@@ -2050,7 +2051,7 @@
         <v>32</v>
       </c>
       <c r="T19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2076,10 +2077,10 @@
         <v>5000</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I20">
         <v>12</v>
@@ -2106,7 +2107,7 @@
         <v>62</v>
       </c>
       <c r="Q20" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R20" t="s">
         <v>30</v>
@@ -2115,7 +2116,7 @@
         <v>31</v>
       </c>
       <c r="T20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2141,10 +2142,10 @@
         <v>7000</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I21">
         <v>95</v>
@@ -2171,7 +2172,7 @@
         <v>64</v>
       </c>
       <c r="Q21" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R21" t="s">
         <v>30</v>
@@ -2180,7 +2181,7 @@
         <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U21">
         <v>100</v>
@@ -2194,7 +2195,7 @@
         <v>55</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
@@ -2206,10 +2207,10 @@
         <v>8500</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I22">
         <v>45</v>
@@ -2236,7 +2237,7 @@
         <v>68</v>
       </c>
       <c r="Q22" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R22" t="s">
         <v>30</v>
@@ -2245,7 +2246,7 @@
         <v>32</v>
       </c>
       <c r="T22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U22">
         <v>100</v>
@@ -2259,7 +2260,7 @@
         <v>56</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
@@ -2271,10 +2272,10 @@
         <v>7500</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I23">
         <v>75</v>
@@ -2301,7 +2302,7 @@
         <v>72</v>
       </c>
       <c r="Q23" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R23" t="s">
         <v>30</v>
@@ -2310,7 +2311,7 @@
         <v>32</v>
       </c>
       <c r="T23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U23">
         <v>100</v>
@@ -2324,7 +2325,7 @@
         <v>57</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>75</v>
@@ -2336,10 +2337,10 @@
         <v>14310</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I24">
         <v>42</v>
@@ -2366,7 +2367,7 @@
         <v>76</v>
       </c>
       <c r="Q24" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R24" t="s">
         <v>30</v>
@@ -2375,7 +2376,7 @@
         <v>32</v>
       </c>
       <c r="T24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U24">
         <v>100</v>
@@ -2386,10 +2387,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -2401,10 +2402,10 @@
         <v>12500</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I25">
         <v>58</v>
@@ -2431,7 +2432,7 @@
         <v>44</v>
       </c>
       <c r="Q25" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R25" t="s">
         <v>41</v>
@@ -2440,7 +2441,7 @@
         <v>40</v>
       </c>
       <c r="T25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2454,7 +2455,7 @@
         <v>58</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
@@ -2466,10 +2467,10 @@
         <v>13500</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>45</v>
@@ -2496,7 +2497,7 @@
         <v>45</v>
       </c>
       <c r="Q26" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R26" t="s">
         <v>30</v>
@@ -2505,7 +2506,7 @@
         <v>32</v>
       </c>
       <c r="T26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -2519,7 +2520,7 @@
         <v>59</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
@@ -2531,10 +2532,10 @@
         <v>3900</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I27">
         <v>15</v>
@@ -2561,7 +2562,7 @@
         <v>79</v>
       </c>
       <c r="Q27" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R27" t="s">
         <v>30</v>
@@ -2570,7 +2571,7 @@
         <v>47</v>
       </c>
       <c r="T27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -2584,7 +2585,7 @@
         <v>77</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
@@ -2596,10 +2597,10 @@
         <v>6500</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I28">
         <v>75</v>
@@ -2626,7 +2627,7 @@
         <v>51</v>
       </c>
       <c r="Q28" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R28" t="s">
         <v>52</v>
@@ -2635,7 +2636,7 @@
         <v>32</v>
       </c>
       <c r="T28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2661,10 +2662,10 @@
         <v>5000</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I29">
         <v>12</v>
@@ -2691,7 +2692,7 @@
         <v>62</v>
       </c>
       <c r="Q29" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R29" t="s">
         <v>30</v>
@@ -2700,7 +2701,7 @@
         <v>31</v>
       </c>
       <c r="T29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -2726,10 +2727,10 @@
         <v>7000</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I30">
         <v>95</v>
@@ -2756,7 +2757,7 @@
         <v>64</v>
       </c>
       <c r="Q30" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R30" t="s">
         <v>30</v>
@@ -2765,7 +2766,7 @@
         <v>31</v>
       </c>
       <c r="T30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U30">
         <v>100</v>
@@ -2779,7 +2780,7 @@
         <v>55</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>65</v>
@@ -2791,10 +2792,10 @@
         <v>8500</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I31">
         <v>45</v>
@@ -2821,7 +2822,7 @@
         <v>68</v>
       </c>
       <c r="Q31" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R31" t="s">
         <v>30</v>
@@ -2830,7 +2831,7 @@
         <v>32</v>
       </c>
       <c r="T31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U31">
         <v>100</v>
@@ -2844,7 +2845,7 @@
         <v>56</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
         <v>69</v>
@@ -2856,10 +2857,10 @@
         <v>7500</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I32">
         <v>75</v>
@@ -2886,7 +2887,7 @@
         <v>72</v>
       </c>
       <c r="Q32" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R32" t="s">
         <v>30</v>
@@ -2895,7 +2896,7 @@
         <v>32</v>
       </c>
       <c r="T32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U32">
         <v>100</v>
@@ -2909,7 +2910,7 @@
         <v>57</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
         <v>75</v>
@@ -2921,10 +2922,10 @@
         <v>14310</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I33">
         <v>42</v>
@@ -2951,7 +2952,7 @@
         <v>76</v>
       </c>
       <c r="Q33" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R33" t="s">
         <v>30</v>
@@ -2960,7 +2961,7 @@
         <v>32</v>
       </c>
       <c r="T33" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U33">
         <v>100</v>
@@ -2971,10 +2972,10 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -2986,10 +2987,10 @@
         <v>12500</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I34">
         <v>58</v>
@@ -3016,7 +3017,7 @@
         <v>44</v>
       </c>
       <c r="Q34" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R34" t="s">
         <v>41</v>
@@ -3025,7 +3026,7 @@
         <v>40</v>
       </c>
       <c r="T34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3039,7 +3040,7 @@
         <v>58</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
@@ -3051,10 +3052,10 @@
         <v>13500</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I35">
         <v>45</v>
@@ -3081,7 +3082,7 @@
         <v>45</v>
       </c>
       <c r="Q35" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R35" t="s">
         <v>30</v>
@@ -3090,7 +3091,7 @@
         <v>32</v>
       </c>
       <c r="T35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3104,7 +3105,7 @@
         <v>59</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
         <v>78</v>
@@ -3116,10 +3117,10 @@
         <v>3900</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I36">
         <v>15</v>
@@ -3146,7 +3147,7 @@
         <v>79</v>
       </c>
       <c r="Q36" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R36" t="s">
         <v>30</v>
@@ -3155,7 +3156,7 @@
         <v>47</v>
       </c>
       <c r="T36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -3169,7 +3170,7 @@
         <v>77</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -3181,10 +3182,10 @@
         <v>6500</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I37">
         <v>75</v>
@@ -3211,7 +3212,7 @@
         <v>51</v>
       </c>
       <c r="Q37" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R37" t="s">
         <v>52</v>
@@ -3220,7 +3221,7 @@
         <v>32</v>
       </c>
       <c r="T37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3246,10 +3247,10 @@
         <v>5000</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I38">
         <v>12</v>
@@ -3276,7 +3277,7 @@
         <v>62</v>
       </c>
       <c r="Q38" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R38" t="s">
         <v>30</v>
@@ -3285,7 +3286,7 @@
         <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -3311,10 +3312,10 @@
         <v>7000</v>
       </c>
       <c r="G39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I39">
         <v>95</v>
@@ -3341,7 +3342,7 @@
         <v>64</v>
       </c>
       <c r="Q39" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R39" t="s">
         <v>30</v>
@@ -3350,7 +3351,7 @@
         <v>31</v>
       </c>
       <c r="T39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U39">
         <v>100</v>
@@ -3364,7 +3365,7 @@
         <v>55</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
@@ -3376,10 +3377,10 @@
         <v>8500</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I40">
         <v>45</v>
@@ -3406,7 +3407,7 @@
         <v>68</v>
       </c>
       <c r="Q40" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R40" t="s">
         <v>30</v>
@@ -3415,7 +3416,7 @@
         <v>32</v>
       </c>
       <c r="T40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U40">
         <v>100</v>
@@ -3429,7 +3430,7 @@
         <v>56</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
@@ -3441,10 +3442,10 @@
         <v>7500</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I41">
         <v>75</v>
@@ -3471,7 +3472,7 @@
         <v>72</v>
       </c>
       <c r="Q41" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R41" t="s">
         <v>30</v>
@@ -3480,7 +3481,7 @@
         <v>32</v>
       </c>
       <c r="T41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U41">
         <v>100</v>
@@ -3494,7 +3495,7 @@
         <v>57</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -3506,10 +3507,10 @@
         <v>14310</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I42">
         <v>42</v>
@@ -3536,7 +3537,7 @@
         <v>76</v>
       </c>
       <c r="Q42" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R42" t="s">
         <v>30</v>
@@ -3545,7 +3546,7 @@
         <v>32</v>
       </c>
       <c r="T42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U42">
         <v>100</v>
@@ -3556,10 +3557,10 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>36</v>
@@ -3571,10 +3572,10 @@
         <v>12500</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I43">
         <v>58</v>
@@ -3601,7 +3602,7 @@
         <v>44</v>
       </c>
       <c r="Q43" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R43" t="s">
         <v>41</v>
@@ -3610,7 +3611,7 @@
         <v>40</v>
       </c>
       <c r="T43" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -3624,7 +3625,7 @@
         <v>58</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
@@ -3636,10 +3637,10 @@
         <v>13500</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I44">
         <v>45</v>
@@ -3666,7 +3667,7 @@
         <v>45</v>
       </c>
       <c r="Q44" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R44" t="s">
         <v>30</v>
@@ -3675,7 +3676,7 @@
         <v>32</v>
       </c>
       <c r="T44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -3689,7 +3690,7 @@
         <v>59</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>78</v>
@@ -3701,10 +3702,10 @@
         <v>3900</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I45">
         <v>15</v>
@@ -3731,7 +3732,7 @@
         <v>79</v>
       </c>
       <c r="Q45" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R45" t="s">
         <v>30</v>
@@ -3740,7 +3741,7 @@
         <v>47</v>
       </c>
       <c r="T45" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -3754,7 +3755,7 @@
         <v>77</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -3766,10 +3767,10 @@
         <v>6500</v>
       </c>
       <c r="G46" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I46">
         <v>75</v>
@@ -3796,7 +3797,7 @@
         <v>51</v>
       </c>
       <c r="Q46" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R46" t="s">
         <v>52</v>
@@ -3805,7 +3806,7 @@
         <v>32</v>
       </c>
       <c r="T46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -3831,10 +3832,10 @@
         <v>5000</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I47">
         <v>12</v>
@@ -3861,7 +3862,7 @@
         <v>62</v>
       </c>
       <c r="Q47" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R47" t="s">
         <v>30</v>
@@ -3870,7 +3871,7 @@
         <v>31</v>
       </c>
       <c r="T47" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -3896,10 +3897,10 @@
         <v>7000</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I48">
         <v>95</v>
@@ -3926,7 +3927,7 @@
         <v>64</v>
       </c>
       <c r="Q48" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R48" t="s">
         <v>30</v>
@@ -3935,7 +3936,7 @@
         <v>31</v>
       </c>
       <c r="T48" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U48">
         <v>100</v>
@@ -3949,7 +3950,7 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
         <v>65</v>
@@ -3961,10 +3962,10 @@
         <v>8500</v>
       </c>
       <c r="G49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I49">
         <v>45</v>
@@ -3991,7 +3992,7 @@
         <v>68</v>
       </c>
       <c r="Q49" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R49" t="s">
         <v>30</v>
@@ -4000,7 +4001,7 @@
         <v>32</v>
       </c>
       <c r="T49" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U49">
         <v>100</v>
@@ -4014,7 +4015,7 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
         <v>69</v>
@@ -4026,10 +4027,10 @@
         <v>7500</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I50">
         <v>75</v>
@@ -4056,7 +4057,7 @@
         <v>72</v>
       </c>
       <c r="Q50" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R50" t="s">
         <v>30</v>
@@ -4065,7 +4066,7 @@
         <v>32</v>
       </c>
       <c r="T50" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U50">
         <v>100</v>
@@ -4079,7 +4080,7 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
         <v>75</v>
@@ -4091,10 +4092,10 @@
         <v>14310</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I51">
         <v>42</v>
@@ -4121,7 +4122,7 @@
         <v>76</v>
       </c>
       <c r="Q51" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R51" t="s">
         <v>30</v>
@@ -4130,7 +4131,7 @@
         <v>32</v>
       </c>
       <c r="T51" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U51">
         <v>100</v>
@@ -4141,10 +4142,10 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
         <v>36</v>
@@ -4156,10 +4157,10 @@
         <v>12500</v>
       </c>
       <c r="G52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I52">
         <v>58</v>
@@ -4186,7 +4187,7 @@
         <v>44</v>
       </c>
       <c r="Q52" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R52" t="s">
         <v>41</v>
@@ -4195,7 +4196,7 @@
         <v>40</v>
       </c>
       <c r="T52" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4209,7 +4210,7 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>42</v>
@@ -4221,10 +4222,10 @@
         <v>13500</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I53">
         <v>45</v>
@@ -4251,7 +4252,7 @@
         <v>45</v>
       </c>
       <c r="Q53" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R53" t="s">
         <v>30</v>
@@ -4260,7 +4261,7 @@
         <v>32</v>
       </c>
       <c r="T53" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -4274,7 +4275,7 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>78</v>
@@ -4286,10 +4287,10 @@
         <v>3900</v>
       </c>
       <c r="G54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I54">
         <v>15</v>
@@ -4316,7 +4317,7 @@
         <v>79</v>
       </c>
       <c r="Q54" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R54" t="s">
         <v>30</v>
@@ -4325,7 +4326,7 @@
         <v>47</v>
       </c>
       <c r="T54" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -4339,7 +4340,7 @@
         <v>77</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -4351,10 +4352,10 @@
         <v>6500</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I55">
         <v>75</v>
@@ -4381,7 +4382,7 @@
         <v>51</v>
       </c>
       <c r="Q55" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R55" t="s">
         <v>52</v>
@@ -4390,7 +4391,7 @@
         <v>32</v>
       </c>
       <c r="T55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -4416,10 +4417,10 @@
         <v>5000</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I56">
         <v>12</v>
@@ -4446,7 +4447,7 @@
         <v>62</v>
       </c>
       <c r="Q56" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R56" t="s">
         <v>30</v>
@@ -4455,7 +4456,7 @@
         <v>31</v>
       </c>
       <c r="T56" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -4481,10 +4482,10 @@
         <v>7000</v>
       </c>
       <c r="G57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I57">
         <v>95</v>
@@ -4511,7 +4512,7 @@
         <v>64</v>
       </c>
       <c r="Q57" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R57" t="s">
         <v>30</v>
@@ -4520,7 +4521,7 @@
         <v>31</v>
       </c>
       <c r="T57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U57">
         <v>100</v>
@@ -4534,7 +4535,7 @@
         <v>55</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>65</v>
@@ -4546,10 +4547,10 @@
         <v>8500</v>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I58">
         <v>45</v>
@@ -4576,7 +4577,7 @@
         <v>68</v>
       </c>
       <c r="Q58" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R58" t="s">
         <v>30</v>
@@ -4585,7 +4586,7 @@
         <v>32</v>
       </c>
       <c r="T58" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U58">
         <v>100</v>
@@ -4599,7 +4600,7 @@
         <v>56</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
         <v>69</v>
@@ -4611,10 +4612,10 @@
         <v>7500</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I59">
         <v>75</v>
@@ -4641,7 +4642,7 @@
         <v>72</v>
       </c>
       <c r="Q59" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R59" t="s">
         <v>30</v>
@@ -4650,7 +4651,7 @@
         <v>32</v>
       </c>
       <c r="T59" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U59">
         <v>100</v>
@@ -4664,7 +4665,7 @@
         <v>57</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
         <v>75</v>
@@ -4676,10 +4677,10 @@
         <v>14310</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I60">
         <v>42</v>
@@ -4706,7 +4707,7 @@
         <v>76</v>
       </c>
       <c r="Q60" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R60" t="s">
         <v>30</v>
@@ -4715,7 +4716,7 @@
         <v>32</v>
       </c>
       <c r="T60" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U60">
         <v>100</v>
@@ -4726,10 +4727,10 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
         <v>36</v>
@@ -4741,10 +4742,10 @@
         <v>12500</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I61">
         <v>58</v>
@@ -4771,7 +4772,7 @@
         <v>44</v>
       </c>
       <c r="Q61" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R61" t="s">
         <v>41</v>
@@ -4780,7 +4781,7 @@
         <v>40</v>
       </c>
       <c r="T61" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -4794,7 +4795,7 @@
         <v>58</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>42</v>
@@ -4806,10 +4807,10 @@
         <v>13500</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I62">
         <v>45</v>
@@ -4836,7 +4837,7 @@
         <v>45</v>
       </c>
       <c r="Q62" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R62" t="s">
         <v>30</v>
@@ -4845,7 +4846,7 @@
         <v>32</v>
       </c>
       <c r="T62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -4859,7 +4860,7 @@
         <v>59</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
         <v>78</v>
@@ -4871,10 +4872,10 @@
         <v>3900</v>
       </c>
       <c r="G63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I63">
         <v>15</v>
@@ -4901,7 +4902,7 @@
         <v>79</v>
       </c>
       <c r="Q63" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R63" t="s">
         <v>30</v>
@@ -4910,7 +4911,7 @@
         <v>47</v>
       </c>
       <c r="T63" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -4924,7 +4925,7 @@
         <v>77</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -4936,10 +4937,10 @@
         <v>6500</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I64">
         <v>75</v>
@@ -4966,7 +4967,7 @@
         <v>51</v>
       </c>
       <c r="Q64" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R64" t="s">
         <v>52</v>
@@ -4975,7 +4976,7 @@
         <v>32</v>
       </c>
       <c r="T64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -5001,10 +5002,10 @@
         <v>5000</v>
       </c>
       <c r="G65" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I65">
         <v>12</v>
@@ -5031,7 +5032,7 @@
         <v>62</v>
       </c>
       <c r="Q65" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R65" t="s">
         <v>30</v>
@@ -5040,7 +5041,7 @@
         <v>31</v>
       </c>
       <c r="T65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -5066,10 +5067,10 @@
         <v>7000</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I66">
         <v>95</v>
@@ -5096,7 +5097,7 @@
         <v>64</v>
       </c>
       <c r="Q66" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R66" t="s">
         <v>30</v>
@@ -5105,7 +5106,7 @@
         <v>31</v>
       </c>
       <c r="T66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U66">
         <v>100</v>
@@ -5119,7 +5120,7 @@
         <v>55</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
         <v>65</v>
@@ -5131,10 +5132,10 @@
         <v>8500</v>
       </c>
       <c r="G67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I67">
         <v>45</v>
@@ -5161,7 +5162,7 @@
         <v>68</v>
       </c>
       <c r="Q67" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R67" t="s">
         <v>30</v>
@@ -5170,7 +5171,7 @@
         <v>32</v>
       </c>
       <c r="T67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U67">
         <v>100</v>
@@ -5184,7 +5185,7 @@
         <v>56</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
         <v>69</v>
@@ -5196,10 +5197,10 @@
         <v>7500</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I68">
         <v>75</v>
@@ -5226,7 +5227,7 @@
         <v>72</v>
       </c>
       <c r="Q68" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R68" t="s">
         <v>30</v>
@@ -5235,7 +5236,7 @@
         <v>32</v>
       </c>
       <c r="T68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U68">
         <v>100</v>
@@ -5249,7 +5250,7 @@
         <v>57</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
         <v>75</v>
@@ -5261,10 +5262,10 @@
         <v>14310</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I69">
         <v>42</v>
@@ -5291,7 +5292,7 @@
         <v>76</v>
       </c>
       <c r="Q69" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R69" t="s">
         <v>30</v>
@@ -5300,7 +5301,7 @@
         <v>32</v>
       </c>
       <c r="T69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U69">
         <v>100</v>
@@ -5311,10 +5312,10 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
         <v>36</v>
@@ -5326,10 +5327,10 @@
         <v>12500</v>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I70">
         <v>58</v>
@@ -5356,7 +5357,7 @@
         <v>44</v>
       </c>
       <c r="Q70" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R70" t="s">
         <v>41</v>
@@ -5365,7 +5366,7 @@
         <v>40</v>
       </c>
       <c r="T70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U70">
         <v>0</v>
@@ -5379,7 +5380,7 @@
         <v>58</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>42</v>
@@ -5391,10 +5392,10 @@
         <v>13500</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I71">
         <v>45</v>
@@ -5421,7 +5422,7 @@
         <v>45</v>
       </c>
       <c r="Q71" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R71" t="s">
         <v>30</v>
@@ -5430,7 +5431,7 @@
         <v>32</v>
       </c>
       <c r="T71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -5444,7 +5445,7 @@
         <v>59</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>78</v>
@@ -5456,10 +5457,10 @@
         <v>3900</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I72">
         <v>15</v>
@@ -5486,7 +5487,7 @@
         <v>79</v>
       </c>
       <c r="Q72" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R72" t="s">
         <v>30</v>
@@ -5495,7 +5496,7 @@
         <v>47</v>
       </c>
       <c r="T72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -5509,7 +5510,7 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
         <v>48</v>
@@ -5521,10 +5522,10 @@
         <v>6500</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I73">
         <v>75</v>
@@ -5551,7 +5552,7 @@
         <v>51</v>
       </c>
       <c r="Q73" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R73" t="s">
         <v>52</v>
@@ -5560,7 +5561,7 @@
         <v>32</v>
       </c>
       <c r="T73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -5586,10 +5587,10 @@
         <v>5000</v>
       </c>
       <c r="G74" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I74">
         <v>12</v>
@@ -5616,7 +5617,7 @@
         <v>62</v>
       </c>
       <c r="Q74" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R74" t="s">
         <v>30</v>
@@ -5625,7 +5626,7 @@
         <v>31</v>
       </c>
       <c r="T74" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -5651,10 +5652,10 @@
         <v>7000</v>
       </c>
       <c r="G75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I75">
         <v>95</v>
@@ -5681,7 +5682,7 @@
         <v>64</v>
       </c>
       <c r="Q75" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R75" t="s">
         <v>30</v>
@@ -5690,7 +5691,7 @@
         <v>31</v>
       </c>
       <c r="T75" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U75">
         <v>100</v>
@@ -5704,7 +5705,7 @@
         <v>55</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
         <v>65</v>
@@ -5716,10 +5717,10 @@
         <v>8500</v>
       </c>
       <c r="G76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I76">
         <v>45</v>
@@ -5746,7 +5747,7 @@
         <v>68</v>
       </c>
       <c r="Q76" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R76" t="s">
         <v>30</v>
@@ -5755,7 +5756,7 @@
         <v>32</v>
       </c>
       <c r="T76" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U76">
         <v>100</v>
@@ -5769,7 +5770,7 @@
         <v>56</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
         <v>69</v>
@@ -5781,10 +5782,10 @@
         <v>7500</v>
       </c>
       <c r="G77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I77">
         <v>75</v>
@@ -5811,7 +5812,7 @@
         <v>72</v>
       </c>
       <c r="Q77" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R77" t="s">
         <v>30</v>
@@ -5820,7 +5821,7 @@
         <v>32</v>
       </c>
       <c r="T77" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U77">
         <v>100</v>
@@ -5834,7 +5835,7 @@
         <v>57</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
         <v>75</v>
@@ -5846,10 +5847,10 @@
         <v>14310</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I78">
         <v>42</v>
@@ -5876,7 +5877,7 @@
         <v>76</v>
       </c>
       <c r="Q78" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R78" t="s">
         <v>30</v>
@@ -5885,7 +5886,7 @@
         <v>32</v>
       </c>
       <c r="T78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U78">
         <v>100</v>
@@ -5896,10 +5897,10 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
         <v>36</v>
@@ -5911,10 +5912,10 @@
         <v>12500</v>
       </c>
       <c r="G79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I79">
         <v>58</v>
@@ -5941,7 +5942,7 @@
         <v>44</v>
       </c>
       <c r="Q79" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R79" t="s">
         <v>41</v>
@@ -5950,7 +5951,7 @@
         <v>40</v>
       </c>
       <c r="T79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U79">
         <v>0</v>
@@ -5964,7 +5965,7 @@
         <v>58</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
         <v>42</v>
@@ -5976,10 +5977,10 @@
         <v>13500</v>
       </c>
       <c r="G80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I80">
         <v>45</v>
@@ -6006,7 +6007,7 @@
         <v>45</v>
       </c>
       <c r="Q80" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R80" t="s">
         <v>30</v>
@@ -6015,7 +6016,7 @@
         <v>32</v>
       </c>
       <c r="T80" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U80">
         <v>0</v>
@@ -6029,7 +6030,7 @@
         <v>59</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
         <v>78</v>
@@ -6041,10 +6042,10 @@
         <v>3900</v>
       </c>
       <c r="G81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H81" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I81">
         <v>15</v>
@@ -6071,7 +6072,7 @@
         <v>79</v>
       </c>
       <c r="Q81" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R81" t="s">
         <v>30</v>
@@ -6080,7 +6081,7 @@
         <v>47</v>
       </c>
       <c r="T81" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -6094,7 +6095,7 @@
         <v>77</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
         <v>48</v>
@@ -6106,10 +6107,10 @@
         <v>6500</v>
       </c>
       <c r="G82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H82" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I82">
         <v>75</v>
@@ -6136,7 +6137,7 @@
         <v>51</v>
       </c>
       <c r="Q82" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R82" t="s">
         <v>52</v>
@@ -6145,7 +6146,7 @@
         <v>32</v>
       </c>
       <c r="T82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U82">
         <v>0</v>
@@ -6171,10 +6172,10 @@
         <v>5000</v>
       </c>
       <c r="G83" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H83" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I83">
         <v>12</v>
@@ -6201,7 +6202,7 @@
         <v>62</v>
       </c>
       <c r="Q83" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R83" t="s">
         <v>30</v>
@@ -6210,7 +6211,7 @@
         <v>31</v>
       </c>
       <c r="T83" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U83">
         <v>0</v>
@@ -6236,10 +6237,10 @@
         <v>7000</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I84">
         <v>95</v>
@@ -6266,7 +6267,7 @@
         <v>64</v>
       </c>
       <c r="Q84" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R84" t="s">
         <v>30</v>
@@ -6275,7 +6276,7 @@
         <v>31</v>
       </c>
       <c r="T84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U84">
         <v>100</v>
@@ -6289,7 +6290,7 @@
         <v>55</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
         <v>65</v>
@@ -6301,10 +6302,10 @@
         <v>8500</v>
       </c>
       <c r="G85" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I85">
         <v>45</v>
@@ -6331,7 +6332,7 @@
         <v>68</v>
       </c>
       <c r="Q85" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R85" t="s">
         <v>30</v>
@@ -6340,7 +6341,7 @@
         <v>32</v>
       </c>
       <c r="T85" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U85">
         <v>100</v>
@@ -6354,7 +6355,7 @@
         <v>56</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
         <v>69</v>
@@ -6366,10 +6367,10 @@
         <v>7500</v>
       </c>
       <c r="G86" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I86">
         <v>75</v>
@@ -6396,7 +6397,7 @@
         <v>72</v>
       </c>
       <c r="Q86" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R86" t="s">
         <v>30</v>
@@ -6405,7 +6406,7 @@
         <v>32</v>
       </c>
       <c r="T86" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U86">
         <v>100</v>
@@ -6419,7 +6420,7 @@
         <v>57</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
         <v>75</v>
@@ -6431,10 +6432,10 @@
         <v>14310</v>
       </c>
       <c r="G87" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I87">
         <v>42</v>
@@ -6461,7 +6462,7 @@
         <v>76</v>
       </c>
       <c r="Q87" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R87" t="s">
         <v>30</v>
@@ -6470,7 +6471,7 @@
         <v>32</v>
       </c>
       <c r="T87" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U87">
         <v>100</v>
@@ -6481,10 +6482,10 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
         <v>36</v>
@@ -6496,10 +6497,10 @@
         <v>12500</v>
       </c>
       <c r="G88" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I88">
         <v>58</v>
@@ -6526,7 +6527,7 @@
         <v>44</v>
       </c>
       <c r="Q88" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R88" t="s">
         <v>41</v>
@@ -6535,7 +6536,7 @@
         <v>40</v>
       </c>
       <c r="T88" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U88">
         <v>0</v>
@@ -6549,7 +6550,7 @@
         <v>58</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>42</v>
@@ -6561,10 +6562,10 @@
         <v>13500</v>
       </c>
       <c r="G89" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H89" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I89">
         <v>45</v>
@@ -6591,7 +6592,7 @@
         <v>45</v>
       </c>
       <c r="Q89" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R89" t="s">
         <v>30</v>
@@ -6600,7 +6601,7 @@
         <v>32</v>
       </c>
       <c r="T89" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U89">
         <v>0</v>
@@ -6614,7 +6615,7 @@
         <v>59</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
         <v>78</v>
@@ -6626,10 +6627,10 @@
         <v>3900</v>
       </c>
       <c r="G90" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I90">
         <v>15</v>
@@ -6656,7 +6657,7 @@
         <v>79</v>
       </c>
       <c r="Q90" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R90" t="s">
         <v>30</v>
@@ -6665,7 +6666,7 @@
         <v>47</v>
       </c>
       <c r="T90" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U90">
         <v>0</v>
@@ -6679,7 +6680,7 @@
         <v>77</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
         <v>48</v>
@@ -6691,10 +6692,10 @@
         <v>6500</v>
       </c>
       <c r="G91" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H91" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I91">
         <v>75</v>
@@ -6721,7 +6722,7 @@
         <v>51</v>
       </c>
       <c r="Q91" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R91" t="s">
         <v>52</v>
@@ -6730,7 +6731,7 @@
         <v>32</v>
       </c>
       <c r="T91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U91">
         <v>0</v>
@@ -6756,10 +6757,10 @@
         <v>5000</v>
       </c>
       <c r="G92" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I92">
         <v>12</v>
@@ -6786,7 +6787,7 @@
         <v>62</v>
       </c>
       <c r="Q92" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R92" t="s">
         <v>30</v>
@@ -6795,7 +6796,7 @@
         <v>31</v>
       </c>
       <c r="T92" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U92">
         <v>0</v>
@@ -6821,10 +6822,10 @@
         <v>7000</v>
       </c>
       <c r="G93" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I93">
         <v>95</v>
@@ -6851,7 +6852,7 @@
         <v>64</v>
       </c>
       <c r="Q93" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R93" t="s">
         <v>30</v>
@@ -6860,7 +6861,7 @@
         <v>31</v>
       </c>
       <c r="T93" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U93">
         <v>100</v>
@@ -6874,7 +6875,7 @@
         <v>55</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
         <v>65</v>
@@ -6886,10 +6887,10 @@
         <v>8500</v>
       </c>
       <c r="G94" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H94" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I94">
         <v>45</v>
@@ -6916,7 +6917,7 @@
         <v>68</v>
       </c>
       <c r="Q94" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R94" t="s">
         <v>30</v>
@@ -6925,7 +6926,7 @@
         <v>32</v>
       </c>
       <c r="T94" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U94">
         <v>100</v>
@@ -6939,7 +6940,7 @@
         <v>56</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
         <v>69</v>
@@ -6951,10 +6952,10 @@
         <v>7500</v>
       </c>
       <c r="G95" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I95">
         <v>75</v>
@@ -6981,7 +6982,7 @@
         <v>72</v>
       </c>
       <c r="Q95" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R95" t="s">
         <v>30</v>
@@ -6990,7 +6991,7 @@
         <v>32</v>
       </c>
       <c r="T95" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U95">
         <v>100</v>
@@ -7004,7 +7005,7 @@
         <v>57</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
         <v>75</v>
@@ -7016,10 +7017,10 @@
         <v>14310</v>
       </c>
       <c r="G96" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H96" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I96">
         <v>42</v>
@@ -7046,7 +7047,7 @@
         <v>76</v>
       </c>
       <c r="Q96" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R96" t="s">
         <v>30</v>
@@ -7055,7 +7056,7 @@
         <v>32</v>
       </c>
       <c r="T96" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U96">
         <v>100</v>
@@ -7066,10 +7067,10 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
         <v>36</v>
@@ -7081,10 +7082,10 @@
         <v>12500</v>
       </c>
       <c r="G97" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I97">
         <v>58</v>
@@ -7111,7 +7112,7 @@
         <v>44</v>
       </c>
       <c r="Q97" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R97" t="s">
         <v>41</v>
@@ -7120,7 +7121,7 @@
         <v>40</v>
       </c>
       <c r="T97" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U97">
         <v>0</v>
@@ -7134,7 +7135,7 @@
         <v>58</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
         <v>42</v>
@@ -7146,10 +7147,10 @@
         <v>13500</v>
       </c>
       <c r="G98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I98">
         <v>45</v>
@@ -7176,7 +7177,7 @@
         <v>45</v>
       </c>
       <c r="Q98" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R98" t="s">
         <v>30</v>
@@ -7185,7 +7186,7 @@
         <v>32</v>
       </c>
       <c r="T98" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U98">
         <v>0</v>
@@ -7199,7 +7200,7 @@
         <v>59</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
         <v>78</v>
@@ -7211,10 +7212,10 @@
         <v>3900</v>
       </c>
       <c r="G99" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I99">
         <v>15</v>
@@ -7241,7 +7242,7 @@
         <v>79</v>
       </c>
       <c r="Q99" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R99" t="s">
         <v>30</v>
@@ -7250,7 +7251,7 @@
         <v>47</v>
       </c>
       <c r="T99" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U99">
         <v>0</v>
@@ -7264,7 +7265,7 @@
         <v>77</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>48</v>
@@ -7276,10 +7277,10 @@
         <v>6500</v>
       </c>
       <c r="G100" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H100" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I100">
         <v>75</v>
@@ -7306,7 +7307,7 @@
         <v>51</v>
       </c>
       <c r="Q100" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R100" t="s">
         <v>52</v>
@@ -7315,7 +7316,7 @@
         <v>32</v>
       </c>
       <c r="T100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U100">
         <v>0</v>
@@ -7341,10 +7342,10 @@
         <v>5000</v>
       </c>
       <c r="G101" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I101">
         <v>12</v>
@@ -7371,7 +7372,7 @@
         <v>62</v>
       </c>
       <c r="Q101" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R101" t="s">
         <v>30</v>
@@ -7380,7 +7381,7 @@
         <v>31</v>
       </c>
       <c r="T101" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U101">
         <v>0</v>
@@ -7406,10 +7407,10 @@
         <v>7000</v>
       </c>
       <c r="G102" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I102">
         <v>95</v>
@@ -7436,7 +7437,7 @@
         <v>64</v>
       </c>
       <c r="Q102" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R102" t="s">
         <v>30</v>
@@ -7445,7 +7446,7 @@
         <v>31</v>
       </c>
       <c r="T102" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U102">
         <v>100</v>
@@ -7459,7 +7460,7 @@
         <v>55</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
         <v>65</v>
@@ -7471,10 +7472,10 @@
         <v>8500</v>
       </c>
       <c r="G103" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H103" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I103">
         <v>45</v>
@@ -7501,7 +7502,7 @@
         <v>68</v>
       </c>
       <c r="Q103" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R103" t="s">
         <v>30</v>
@@ -7510,7 +7511,7 @@
         <v>32</v>
       </c>
       <c r="T103" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U103">
         <v>100</v>
@@ -7524,7 +7525,7 @@
         <v>56</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D104" t="s">
         <v>69</v>
@@ -7536,10 +7537,10 @@
         <v>7500</v>
       </c>
       <c r="G104" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H104" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I104">
         <v>75</v>
@@ -7566,7 +7567,7 @@
         <v>72</v>
       </c>
       <c r="Q104" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R104" t="s">
         <v>30</v>
@@ -7575,7 +7576,7 @@
         <v>32</v>
       </c>
       <c r="T104" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U104">
         <v>100</v>
@@ -7589,7 +7590,7 @@
         <v>57</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
         <v>75</v>
@@ -7601,10 +7602,10 @@
         <v>14310</v>
       </c>
       <c r="G105" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H105" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I105">
         <v>42</v>
@@ -7631,7 +7632,7 @@
         <v>76</v>
       </c>
       <c r="Q105" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R105" t="s">
         <v>30</v>
@@ -7640,7 +7641,7 @@
         <v>32</v>
       </c>
       <c r="T105" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U105">
         <v>100</v>
@@ -7651,10 +7652,10 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
         <v>36</v>
@@ -7666,10 +7667,10 @@
         <v>12500</v>
       </c>
       <c r="G106" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H106" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I106">
         <v>58</v>
@@ -7696,7 +7697,7 @@
         <v>44</v>
       </c>
       <c r="Q106" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R106" t="s">
         <v>41</v>
@@ -7705,7 +7706,7 @@
         <v>40</v>
       </c>
       <c r="T106" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U106">
         <v>0</v>
@@ -7719,7 +7720,7 @@
         <v>58</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
         <v>42</v>
@@ -7731,10 +7732,10 @@
         <v>13500</v>
       </c>
       <c r="G107" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H107" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I107">
         <v>45</v>
@@ -7761,7 +7762,7 @@
         <v>45</v>
       </c>
       <c r="Q107" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R107" t="s">
         <v>30</v>
@@ -7770,7 +7771,7 @@
         <v>32</v>
       </c>
       <c r="T107" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U107">
         <v>0</v>
@@ -7784,7 +7785,7 @@
         <v>59</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
         <v>78</v>
@@ -7796,10 +7797,10 @@
         <v>3900</v>
       </c>
       <c r="G108" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H108" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I108">
         <v>15</v>
@@ -7826,7 +7827,7 @@
         <v>79</v>
       </c>
       <c r="Q108" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R108" t="s">
         <v>30</v>
@@ -7835,7 +7836,7 @@
         <v>47</v>
       </c>
       <c r="T108" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U108">
         <v>0</v>
@@ -7849,7 +7850,7 @@
         <v>77</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
         <v>48</v>
@@ -7861,10 +7862,10 @@
         <v>6500</v>
       </c>
       <c r="G109" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H109" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I109">
         <v>75</v>
@@ -7891,7 +7892,7 @@
         <v>51</v>
       </c>
       <c r="Q109" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R109" t="s">
         <v>52</v>
@@ -7900,7 +7901,7 @@
         <v>32</v>
       </c>
       <c r="T109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U109">
         <v>0</v>
@@ -7926,10 +7927,10 @@
         <v>5000</v>
       </c>
       <c r="G110" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H110" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I110">
         <v>12</v>
@@ -7956,7 +7957,7 @@
         <v>62</v>
       </c>
       <c r="Q110" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R110" t="s">
         <v>30</v>
@@ -7965,7 +7966,7 @@
         <v>31</v>
       </c>
       <c r="T110" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U110">
         <v>0</v>
@@ -7991,10 +7992,10 @@
         <v>7000</v>
       </c>
       <c r="G111" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H111" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I111">
         <v>95</v>
@@ -8021,7 +8022,7 @@
         <v>64</v>
       </c>
       <c r="Q111" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R111" t="s">
         <v>30</v>
@@ -8030,7 +8031,7 @@
         <v>31</v>
       </c>
       <c r="T111" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U111">
         <v>100</v>
@@ -8044,7 +8045,7 @@
         <v>55</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
         <v>65</v>
@@ -8056,10 +8057,10 @@
         <v>8500</v>
       </c>
       <c r="G112" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H112" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I112">
         <v>45</v>
@@ -8086,7 +8087,7 @@
         <v>68</v>
       </c>
       <c r="Q112" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R112" t="s">
         <v>30</v>
@@ -8095,7 +8096,7 @@
         <v>32</v>
       </c>
       <c r="T112" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U112">
         <v>100</v>
@@ -8109,7 +8110,7 @@
         <v>56</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
         <v>69</v>
@@ -8121,10 +8122,10 @@
         <v>7500</v>
       </c>
       <c r="G113" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H113" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I113">
         <v>75</v>
@@ -8151,7 +8152,7 @@
         <v>72</v>
       </c>
       <c r="Q113" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R113" t="s">
         <v>30</v>
@@ -8160,7 +8161,7 @@
         <v>32</v>
       </c>
       <c r="T113" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U113">
         <v>100</v>
@@ -8174,7 +8175,7 @@
         <v>57</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
         <v>75</v>
@@ -8186,10 +8187,10 @@
         <v>14310</v>
       </c>
       <c r="G114" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H114" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I114">
         <v>42</v>
@@ -8216,7 +8217,7 @@
         <v>76</v>
       </c>
       <c r="Q114" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R114" t="s">
         <v>30</v>
@@ -8225,7 +8226,7 @@
         <v>32</v>
       </c>
       <c r="T114" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U114">
         <v>100</v>
@@ -8236,10 +8237,10 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
         <v>36</v>
@@ -8251,10 +8252,10 @@
         <v>12500</v>
       </c>
       <c r="G115" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H115" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I115">
         <v>58</v>
@@ -8281,7 +8282,7 @@
         <v>44</v>
       </c>
       <c r="Q115" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R115" t="s">
         <v>41</v>
@@ -8290,7 +8291,7 @@
         <v>40</v>
       </c>
       <c r="T115" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U115">
         <v>0</v>
@@ -8304,7 +8305,7 @@
         <v>58</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
         <v>42</v>
@@ -8316,10 +8317,10 @@
         <v>13500</v>
       </c>
       <c r="G116" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H116" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I116">
         <v>45</v>
@@ -8346,7 +8347,7 @@
         <v>45</v>
       </c>
       <c r="Q116" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R116" t="s">
         <v>30</v>
@@ -8355,7 +8356,7 @@
         <v>32</v>
       </c>
       <c r="T116" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U116">
         <v>0</v>
@@ -8369,7 +8370,7 @@
         <v>59</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
         <v>78</v>
@@ -8381,10 +8382,10 @@
         <v>3900</v>
       </c>
       <c r="G117" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H117" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I117">
         <v>15</v>
@@ -8411,7 +8412,7 @@
         <v>79</v>
       </c>
       <c r="Q117" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R117" t="s">
         <v>30</v>
@@ -8420,7 +8421,7 @@
         <v>47</v>
       </c>
       <c r="T117" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U117">
         <v>0</v>
@@ -8434,7 +8435,7 @@
         <v>77</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D118" t="s">
         <v>48</v>
@@ -8446,10 +8447,10 @@
         <v>6500</v>
       </c>
       <c r="G118" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H118" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I118">
         <v>75</v>
@@ -8476,7 +8477,7 @@
         <v>51</v>
       </c>
       <c r="Q118" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R118" t="s">
         <v>52</v>
@@ -8485,7 +8486,7 @@
         <v>32</v>
       </c>
       <c r="T118" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U118">
         <v>0</v>
@@ -8511,10 +8512,10 @@
         <v>5000</v>
       </c>
       <c r="G119" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H119" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I119">
         <v>12</v>
@@ -8541,7 +8542,7 @@
         <v>62</v>
       </c>
       <c r="Q119" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R119" t="s">
         <v>30</v>
@@ -8550,7 +8551,7 @@
         <v>31</v>
       </c>
       <c r="T119" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U119">
         <v>0</v>
@@ -8576,10 +8577,10 @@
         <v>7000</v>
       </c>
       <c r="G120" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H120" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I120">
         <v>95</v>
@@ -8606,7 +8607,7 @@
         <v>64</v>
       </c>
       <c r="Q120" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R120" t="s">
         <v>30</v>
@@ -8615,7 +8616,7 @@
         <v>31</v>
       </c>
       <c r="T120" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U120">
         <v>100</v>
@@ -8629,7 +8630,7 @@
         <v>55</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
         <v>65</v>
@@ -8641,10 +8642,10 @@
         <v>8500</v>
       </c>
       <c r="G121" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H121" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I121">
         <v>45</v>
@@ -8671,7 +8672,7 @@
         <v>68</v>
       </c>
       <c r="Q121" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R121" t="s">
         <v>30</v>
@@ -8680,7 +8681,7 @@
         <v>32</v>
       </c>
       <c r="T121" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U121">
         <v>100</v>
@@ -8694,7 +8695,7 @@
         <v>56</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
         <v>69</v>
@@ -8706,10 +8707,10 @@
         <v>7500</v>
       </c>
       <c r="G122" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H122" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I122">
         <v>75</v>
@@ -8736,7 +8737,7 @@
         <v>72</v>
       </c>
       <c r="Q122" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R122" t="s">
         <v>30</v>
@@ -8745,7 +8746,7 @@
         <v>32</v>
       </c>
       <c r="T122" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U122">
         <v>100</v>
@@ -8759,7 +8760,7 @@
         <v>57</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
         <v>75</v>
@@ -8771,10 +8772,10 @@
         <v>14310</v>
       </c>
       <c r="G123" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H123" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I123">
         <v>42</v>
@@ -8801,7 +8802,7 @@
         <v>76</v>
       </c>
       <c r="Q123" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R123" t="s">
         <v>30</v>
@@ -8810,7 +8811,7 @@
         <v>32</v>
       </c>
       <c r="T123" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U123">
         <v>100</v>
@@ -8821,10 +8822,10 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
         <v>36</v>
@@ -8836,10 +8837,10 @@
         <v>12500</v>
       </c>
       <c r="G124" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H124" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I124">
         <v>58</v>
@@ -8866,7 +8867,7 @@
         <v>44</v>
       </c>
       <c r="Q124" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R124" t="s">
         <v>41</v>
@@ -8875,7 +8876,7 @@
         <v>40</v>
       </c>
       <c r="T124" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U124">
         <v>0</v>
@@ -8889,7 +8890,7 @@
         <v>58</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
         <v>42</v>
@@ -8901,10 +8902,10 @@
         <v>13500</v>
       </c>
       <c r="G125" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H125" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I125">
         <v>45</v>
@@ -8931,7 +8932,7 @@
         <v>45</v>
       </c>
       <c r="Q125" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R125" t="s">
         <v>30</v>
@@ -8940,7 +8941,7 @@
         <v>32</v>
       </c>
       <c r="T125" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U125">
         <v>0</v>
@@ -8954,7 +8955,7 @@
         <v>59</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
         <v>78</v>
@@ -8966,10 +8967,10 @@
         <v>3900</v>
       </c>
       <c r="G126" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H126" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I126">
         <v>15</v>
@@ -8996,7 +8997,7 @@
         <v>79</v>
       </c>
       <c r="Q126" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R126" t="s">
         <v>30</v>
@@ -9005,7 +9006,7 @@
         <v>47</v>
       </c>
       <c r="T126" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U126">
         <v>0</v>
@@ -9019,7 +9020,7 @@
         <v>77</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
         <v>48</v>
@@ -9031,10 +9032,10 @@
         <v>6500</v>
       </c>
       <c r="G127" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H127" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I127">
         <v>75</v>
@@ -9061,7 +9062,7 @@
         <v>51</v>
       </c>
       <c r="Q127" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R127" t="s">
         <v>52</v>
@@ -9070,7 +9071,7 @@
         <v>32</v>
       </c>
       <c r="T127" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U127">
         <v>0</v>
@@ -9096,10 +9097,10 @@
         <v>5000</v>
       </c>
       <c r="G128" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H128" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I128">
         <v>12</v>
@@ -9126,7 +9127,7 @@
         <v>62</v>
       </c>
       <c r="Q128" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R128" t="s">
         <v>30</v>
@@ -9135,7 +9136,7 @@
         <v>31</v>
       </c>
       <c r="T128" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U128">
         <v>0</v>
@@ -9161,10 +9162,10 @@
         <v>7000</v>
       </c>
       <c r="G129" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H129" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I129">
         <v>95</v>
@@ -9191,7 +9192,7 @@
         <v>64</v>
       </c>
       <c r="Q129" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R129" t="s">
         <v>30</v>
@@ -9200,7 +9201,7 @@
         <v>31</v>
       </c>
       <c r="T129" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U129">
         <v>100</v>
@@ -9214,7 +9215,7 @@
         <v>55</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
         <v>65</v>
@@ -9226,10 +9227,10 @@
         <v>8500</v>
       </c>
       <c r="G130" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H130" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I130">
         <v>45</v>
@@ -9256,7 +9257,7 @@
         <v>68</v>
       </c>
       <c r="Q130" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R130" t="s">
         <v>30</v>
@@ -9265,7 +9266,7 @@
         <v>32</v>
       </c>
       <c r="T130" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U130">
         <v>100</v>
@@ -9279,7 +9280,7 @@
         <v>56</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D131" t="s">
         <v>69</v>
@@ -9291,10 +9292,10 @@
         <v>7500</v>
       </c>
       <c r="G131" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H131" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I131">
         <v>75</v>
@@ -9321,7 +9322,7 @@
         <v>72</v>
       </c>
       <c r="Q131" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R131" t="s">
         <v>30</v>
@@ -9330,7 +9331,7 @@
         <v>32</v>
       </c>
       <c r="T131" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U131">
         <v>100</v>
@@ -9344,7 +9345,7 @@
         <v>57</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
         <v>75</v>
@@ -9356,10 +9357,10 @@
         <v>14310</v>
       </c>
       <c r="G132" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H132" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I132">
         <v>42</v>
@@ -9386,7 +9387,7 @@
         <v>76</v>
       </c>
       <c r="Q132" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R132" t="s">
         <v>30</v>
@@ -9395,7 +9396,7 @@
         <v>32</v>
       </c>
       <c r="T132" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U132">
         <v>100</v>
@@ -9406,10 +9407,10 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
         <v>36</v>
@@ -9421,10 +9422,10 @@
         <v>12500</v>
       </c>
       <c r="G133" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H133" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I133">
         <v>58</v>
@@ -9451,7 +9452,7 @@
         <v>44</v>
       </c>
       <c r="Q133" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R133" t="s">
         <v>41</v>
@@ -9460,7 +9461,7 @@
         <v>40</v>
       </c>
       <c r="T133" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U133">
         <v>0</v>
@@ -9474,7 +9475,7 @@
         <v>58</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
         <v>42</v>
@@ -9486,10 +9487,10 @@
         <v>13500</v>
       </c>
       <c r="G134" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H134" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I134">
         <v>45</v>
@@ -9516,7 +9517,7 @@
         <v>45</v>
       </c>
       <c r="Q134" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R134" t="s">
         <v>30</v>
@@ -9525,7 +9526,7 @@
         <v>32</v>
       </c>
       <c r="T134" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U134">
         <v>0</v>
@@ -9539,7 +9540,7 @@
         <v>59</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D135" t="s">
         <v>78</v>
@@ -9551,10 +9552,10 @@
         <v>3900</v>
       </c>
       <c r="G135" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H135" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I135">
         <v>15</v>
@@ -9581,7 +9582,7 @@
         <v>79</v>
       </c>
       <c r="Q135" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R135" t="s">
         <v>30</v>
@@ -9590,7 +9591,7 @@
         <v>47</v>
       </c>
       <c r="T135" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U135">
         <v>0</v>
@@ -9604,7 +9605,7 @@
         <v>77</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
         <v>48</v>
@@ -9616,10 +9617,10 @@
         <v>6500</v>
       </c>
       <c r="G136" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H136" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I136">
         <v>75</v>
@@ -9646,7 +9647,7 @@
         <v>51</v>
       </c>
       <c r="Q136" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R136" t="s">
         <v>52</v>
@@ -9655,7 +9656,7 @@
         <v>32</v>
       </c>
       <c r="T136" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U136">
         <v>0</v>
@@ -9681,10 +9682,10 @@
         <v>5000</v>
       </c>
       <c r="G137" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H137" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I137">
         <v>12</v>
@@ -9711,7 +9712,7 @@
         <v>62</v>
       </c>
       <c r="Q137" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R137" t="s">
         <v>30</v>
@@ -9720,7 +9721,7 @@
         <v>31</v>
       </c>
       <c r="T137" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U137">
         <v>0</v>
@@ -9746,10 +9747,10 @@
         <v>7000</v>
       </c>
       <c r="G138" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H138" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I138">
         <v>95</v>
@@ -9776,7 +9777,7 @@
         <v>64</v>
       </c>
       <c r="Q138" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R138" t="s">
         <v>30</v>
@@ -9785,7 +9786,7 @@
         <v>31</v>
       </c>
       <c r="T138" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U138">
         <v>100</v>
@@ -9799,7 +9800,7 @@
         <v>55</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
         <v>65</v>
@@ -9811,10 +9812,10 @@
         <v>8500</v>
       </c>
       <c r="G139" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H139" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I139">
         <v>45</v>
@@ -9841,7 +9842,7 @@
         <v>68</v>
       </c>
       <c r="Q139" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R139" t="s">
         <v>30</v>
@@ -9850,7 +9851,7 @@
         <v>32</v>
       </c>
       <c r="T139" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U139">
         <v>100</v>
@@ -9864,7 +9865,7 @@
         <v>56</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
         <v>69</v>
@@ -9876,10 +9877,10 @@
         <v>7500</v>
       </c>
       <c r="G140" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H140" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I140">
         <v>75</v>
@@ -9906,7 +9907,7 @@
         <v>72</v>
       </c>
       <c r="Q140" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R140" t="s">
         <v>30</v>
@@ -9915,7 +9916,7 @@
         <v>32</v>
       </c>
       <c r="T140" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U140">
         <v>100</v>
@@ -9929,7 +9930,7 @@
         <v>57</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
         <v>75</v>
@@ -9941,10 +9942,10 @@
         <v>14310</v>
       </c>
       <c r="G141" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H141" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I141">
         <v>42</v>
@@ -9971,7 +9972,7 @@
         <v>76</v>
       </c>
       <c r="Q141" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R141" t="s">
         <v>30</v>
@@ -9980,7 +9981,7 @@
         <v>32</v>
       </c>
       <c r="T141" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U141">
         <v>100</v>
@@ -9991,10 +9992,10 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
         <v>36</v>
@@ -10006,10 +10007,10 @@
         <v>12500</v>
       </c>
       <c r="G142" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H142" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I142">
         <v>58</v>
@@ -10036,7 +10037,7 @@
         <v>44</v>
       </c>
       <c r="Q142" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R142" t="s">
         <v>41</v>
@@ -10045,7 +10046,7 @@
         <v>40</v>
       </c>
       <c r="T142" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U142">
         <v>0</v>
@@ -10059,7 +10060,7 @@
         <v>58</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D143" t="s">
         <v>42</v>
@@ -10071,10 +10072,10 @@
         <v>13500</v>
       </c>
       <c r="G143" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H143" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I143">
         <v>45</v>
@@ -10101,7 +10102,7 @@
         <v>45</v>
       </c>
       <c r="Q143" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R143" t="s">
         <v>30</v>
@@ -10110,7 +10111,7 @@
         <v>32</v>
       </c>
       <c r="T143" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U143">
         <v>0</v>
@@ -10124,7 +10125,7 @@
         <v>59</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D144" t="s">
         <v>78</v>
@@ -10136,10 +10137,10 @@
         <v>3900</v>
       </c>
       <c r="G144" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H144" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I144">
         <v>15</v>
@@ -10166,7 +10167,7 @@
         <v>79</v>
       </c>
       <c r="Q144" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R144" t="s">
         <v>30</v>
@@ -10175,7 +10176,7 @@
         <v>47</v>
       </c>
       <c r="T144" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U144">
         <v>0</v>
@@ -10189,7 +10190,7 @@
         <v>77</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D145" t="s">
         <v>48</v>
@@ -10201,10 +10202,10 @@
         <v>6500</v>
       </c>
       <c r="G145" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H145" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I145">
         <v>75</v>
@@ -10231,7 +10232,7 @@
         <v>51</v>
       </c>
       <c r="Q145" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R145" t="s">
         <v>52</v>
@@ -10240,7 +10241,7 @@
         <v>32</v>
       </c>
       <c r="T145" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U145">
         <v>0</v>
@@ -10266,10 +10267,10 @@
         <v>5000</v>
       </c>
       <c r="G146" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H146" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I146">
         <v>12</v>
@@ -10296,7 +10297,7 @@
         <v>62</v>
       </c>
       <c r="Q146" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R146" t="s">
         <v>30</v>
@@ -10305,7 +10306,7 @@
         <v>31</v>
       </c>
       <c r="T146" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U146">
         <v>0</v>
@@ -10331,10 +10332,10 @@
         <v>7000</v>
       </c>
       <c r="G147" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H147" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I147">
         <v>95</v>
@@ -10361,7 +10362,7 @@
         <v>64</v>
       </c>
       <c r="Q147" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R147" t="s">
         <v>30</v>
@@ -10370,7 +10371,7 @@
         <v>31</v>
       </c>
       <c r="T147" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U147">
         <v>100</v>
@@ -10384,7 +10385,7 @@
         <v>55</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
         <v>65</v>
@@ -10396,10 +10397,10 @@
         <v>8500</v>
       </c>
       <c r="G148" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H148" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I148">
         <v>45</v>
@@ -10426,7 +10427,7 @@
         <v>68</v>
       </c>
       <c r="Q148" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R148" t="s">
         <v>30</v>
@@ -10435,7 +10436,7 @@
         <v>32</v>
       </c>
       <c r="T148" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U148">
         <v>100</v>
@@ -10449,7 +10450,7 @@
         <v>56</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D149" t="s">
         <v>69</v>
@@ -10461,10 +10462,10 @@
         <v>7500</v>
       </c>
       <c r="G149" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H149" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I149">
         <v>75</v>
@@ -10491,7 +10492,7 @@
         <v>72</v>
       </c>
       <c r="Q149" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R149" t="s">
         <v>30</v>
@@ -10500,7 +10501,7 @@
         <v>32</v>
       </c>
       <c r="T149" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U149">
         <v>100</v>
@@ -10514,7 +10515,7 @@
         <v>57</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
         <v>75</v>
@@ -10526,10 +10527,10 @@
         <v>14310</v>
       </c>
       <c r="G150" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H150" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I150">
         <v>42</v>
@@ -10556,7 +10557,7 @@
         <v>76</v>
       </c>
       <c r="Q150" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R150" t="s">
         <v>30</v>
@@ -10565,7 +10566,7 @@
         <v>32</v>
       </c>
       <c r="T150" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U150">
         <v>100</v>
@@ -10576,10 +10577,10 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
         <v>36</v>
@@ -10591,10 +10592,10 @@
         <v>12500</v>
       </c>
       <c r="G151" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H151" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I151">
         <v>58</v>
@@ -10621,7 +10622,7 @@
         <v>44</v>
       </c>
       <c r="Q151" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R151" t="s">
         <v>41</v>
@@ -10630,7 +10631,7 @@
         <v>40</v>
       </c>
       <c r="T151" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U151">
         <v>0</v>
@@ -10644,7 +10645,7 @@
         <v>58</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D152" t="s">
         <v>42</v>
@@ -10656,10 +10657,10 @@
         <v>13500</v>
       </c>
       <c r="G152" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H152" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I152">
         <v>45</v>
@@ -10686,7 +10687,7 @@
         <v>45</v>
       </c>
       <c r="Q152" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R152" t="s">
         <v>30</v>
@@ -10695,7 +10696,7 @@
         <v>32</v>
       </c>
       <c r="T152" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U152">
         <v>0</v>
@@ -10709,7 +10710,7 @@
         <v>59</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D153" t="s">
         <v>78</v>
@@ -10721,10 +10722,10 @@
         <v>3900</v>
       </c>
       <c r="G153" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I153">
         <v>15</v>
@@ -10751,7 +10752,7 @@
         <v>79</v>
       </c>
       <c r="Q153" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R153" t="s">
         <v>30</v>
@@ -10760,7 +10761,7 @@
         <v>47</v>
       </c>
       <c r="T153" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U153">
         <v>0</v>
@@ -10774,7 +10775,7 @@
         <v>77</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D154" t="s">
         <v>48</v>
@@ -10786,10 +10787,10 @@
         <v>6500</v>
       </c>
       <c r="G154" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H154" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I154">
         <v>75</v>
@@ -10816,7 +10817,7 @@
         <v>51</v>
       </c>
       <c r="Q154" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R154" t="s">
         <v>52</v>
@@ -10825,7 +10826,7 @@
         <v>32</v>
       </c>
       <c r="T154" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U154">
         <v>0</v>
@@ -10851,10 +10852,10 @@
         <v>5000</v>
       </c>
       <c r="G155" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H155" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I155">
         <v>12</v>
@@ -10881,7 +10882,7 @@
         <v>62</v>
       </c>
       <c r="Q155" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R155" t="s">
         <v>30</v>
@@ -10890,7 +10891,7 @@
         <v>31</v>
       </c>
       <c r="T155" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U155">
         <v>0</v>
@@ -10916,10 +10917,10 @@
         <v>7000</v>
       </c>
       <c r="G156" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H156" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I156">
         <v>95</v>
@@ -10946,7 +10947,7 @@
         <v>64</v>
       </c>
       <c r="Q156" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R156" t="s">
         <v>30</v>
@@ -10955,7 +10956,7 @@
         <v>31</v>
       </c>
       <c r="T156" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U156">
         <v>100</v>
@@ -10969,7 +10970,7 @@
         <v>55</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
         <v>65</v>
@@ -10981,10 +10982,10 @@
         <v>8500</v>
       </c>
       <c r="G157" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H157" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I157">
         <v>45</v>
@@ -11011,7 +11012,7 @@
         <v>68</v>
       </c>
       <c r="Q157" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R157" t="s">
         <v>30</v>
@@ -11020,7 +11021,7 @@
         <v>32</v>
       </c>
       <c r="T157" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U157">
         <v>100</v>
@@ -11034,7 +11035,7 @@
         <v>56</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
         <v>69</v>
@@ -11046,10 +11047,10 @@
         <v>7500</v>
       </c>
       <c r="G158" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H158" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I158">
         <v>75</v>
@@ -11076,7 +11077,7 @@
         <v>72</v>
       </c>
       <c r="Q158" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R158" t="s">
         <v>30</v>
@@ -11085,7 +11086,7 @@
         <v>32</v>
       </c>
       <c r="T158" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U158">
         <v>100</v>
@@ -11099,7 +11100,7 @@
         <v>57</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
         <v>75</v>
@@ -11111,10 +11112,10 @@
         <v>14310</v>
       </c>
       <c r="G159" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H159" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I159">
         <v>42</v>
@@ -11141,7 +11142,7 @@
         <v>76</v>
       </c>
       <c r="Q159" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R159" t="s">
         <v>30</v>
@@ -11150,7 +11151,7 @@
         <v>32</v>
       </c>
       <c r="T159" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U159">
         <v>100</v>
@@ -11161,10 +11162,10 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
         <v>36</v>
@@ -11176,10 +11177,10 @@
         <v>12500</v>
       </c>
       <c r="G160" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H160" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I160">
         <v>58</v>
@@ -11206,7 +11207,7 @@
         <v>44</v>
       </c>
       <c r="Q160" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R160" t="s">
         <v>41</v>
@@ -11215,7 +11216,7 @@
         <v>40</v>
       </c>
       <c r="T160" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U160">
         <v>0</v>
@@ -11229,7 +11230,7 @@
         <v>58</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D161" t="s">
         <v>42</v>
@@ -11241,10 +11242,10 @@
         <v>13500</v>
       </c>
       <c r="G161" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H161" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I161">
         <v>45</v>
@@ -11271,7 +11272,7 @@
         <v>45</v>
       </c>
       <c r="Q161" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R161" t="s">
         <v>30</v>
@@ -11280,7 +11281,7 @@
         <v>32</v>
       </c>
       <c r="T161" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U161">
         <v>0</v>
@@ -11294,7 +11295,7 @@
         <v>59</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D162" t="s">
         <v>78</v>
@@ -11306,10 +11307,10 @@
         <v>3900</v>
       </c>
       <c r="G162" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H162" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I162">
         <v>15</v>
@@ -11336,7 +11337,7 @@
         <v>79</v>
       </c>
       <c r="Q162" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R162" t="s">
         <v>30</v>
@@ -11345,7 +11346,7 @@
         <v>47</v>
       </c>
       <c r="T162" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U162">
         <v>0</v>
@@ -11359,7 +11360,7 @@
         <v>77</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D163" t="s">
         <v>48</v>
@@ -11371,10 +11372,10 @@
         <v>6500</v>
       </c>
       <c r="G163" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H163" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I163">
         <v>75</v>
@@ -11401,7 +11402,7 @@
         <v>51</v>
       </c>
       <c r="Q163" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="R163" t="s">
         <v>52</v>
@@ -11410,7 +11411,7 @@
         <v>32</v>
       </c>
       <c r="T163" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U163">
         <v>0</v>

--- a/샘플데이터/BROCOLLI PRODUCT SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI PRODUCT SAMPLE.xlsx
@@ -345,88 +345,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resources/product_upfiles/ f20201020.jpg</t>
+    <t>resources/product_upfiles/f20201020.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resources/product_upfiles/ f20201021.jpg</t>
+    <t>resources/product_upfiles/f20201021.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ f20201022.jpg</t>
+    <t>resources/product_upfiles/f20201022.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ f20201023.jpg</t>
+    <t>resources/product_upfiles/f20201023.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ f20201024.jpg</t>
+    <t>resources/product_upfiles/f20201024.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ f20201025.jpg</t>
+    <t>resources/product_upfiles/f20201025.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ f20201026.jpg</t>
+    <t>resources/product_upfiles/f20201026.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ f20201027.jpg</t>
+    <t>resources/product_upfiles/f20201027.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ f20201028.jpg</t>
+    <t>resources/product_upfiles/f20201028.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ s20201020.jpg</t>
+    <t>resources/product_upfiles/s20201021.jpg</t>
+  </si>
+  <si>
+    <t>resources/product_upfiles/s20201020.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resources/product_upfiles/ s20201021.jpg</t>
+    <t>resources/product_upfiles/s20201022.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ s20201022.jpg</t>
+    <t>resources/product_upfiles/s20201023.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ s20201023.jpg</t>
+    <t>resources/product_upfiles/s20201024.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ s20201024.jpg</t>
+    <t>resources/product_upfiles/s20201025.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ s20201025.jpg</t>
+    <t>resources/product_upfiles/s20201026.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ s20201026.jpg</t>
+    <t>resources/product_upfiles/s20201027.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ s20201027.jpg</t>
+    <t>resources/product_upfiles/s20201028.jpg</t>
   </si>
   <si>
-    <t>resources/product_upfiles/ s20201028.jpg</t>
-  </si>
-  <si>
-    <t>resources/thumbnail_upfiles/ th20201020.jpg</t>
+    <t>resources/thumbnail_upfiles/th20201020.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resources/thumbnail_upfiles/ th20201021.jpg</t>
+    <t>resources/thumbnail_upfiles/th20201021.jpg</t>
   </si>
   <si>
-    <t>resources/thumbnail_upfiles/ th20201022.jpg</t>
+    <t>resources/thumbnail_upfiles/th20201022.jpg</t>
   </si>
   <si>
-    <t>resources/thumbnail_upfiles/ th20201023.jpg</t>
+    <t>resources/thumbnail_upfiles/th20201023.jpg</t>
   </si>
   <si>
-    <t>resources/thumbnail_upfiles/ th20201024.jpg</t>
+    <t>resources/thumbnail_upfiles/th20201024.jpg</t>
   </si>
   <si>
-    <t>resources/thumbnail_upfiles/ th20201025.jpg</t>
+    <t>resources/thumbnail_upfiles/th20201025.jpg</t>
   </si>
   <si>
-    <t>resources/thumbnail_upfiles/ th20201026.jpg</t>
+    <t>resources/thumbnail_upfiles/th20201026.jpg</t>
   </si>
   <si>
-    <t>resources/thumbnail_upfiles/ th20201027.jpg</t>
+    <t>resources/thumbnail_upfiles/th20201027.jpg</t>
   </si>
   <si>
-    <t>resources/thumbnail_upfiles/ th20201028.jpg</t>
+    <t>resources/thumbnail_upfiles/th20201028.jpg</t>
   </si>
 </sst>
 </file>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I141" workbookViewId="0">
-      <selection activeCell="P168" sqref="P168"/>
+    <sheetView tabSelected="1" topLeftCell="I133" workbookViewId="0">
+      <selection activeCell="Q167" sqref="Q167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -910,7 +910,7 @@
         <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -975,7 +975,7 @@
         <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>95</v>
@@ -1495,7 +1495,7 @@
         <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -1560,7 +1560,7 @@
         <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12">
         <v>95</v>
@@ -2080,7 +2080,7 @@
         <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20">
         <v>12</v>
@@ -2145,7 +2145,7 @@
         <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I21">
         <v>95</v>
@@ -2665,7 +2665,7 @@
         <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29">
         <v>12</v>
@@ -2730,7 +2730,7 @@
         <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30">
         <v>95</v>
@@ -3250,7 +3250,7 @@
         <v>85</v>
       </c>
       <c r="H38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I38">
         <v>12</v>
@@ -3315,7 +3315,7 @@
         <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I39">
         <v>95</v>
@@ -3835,7 +3835,7 @@
         <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I47">
         <v>12</v>
@@ -3900,7 +3900,7 @@
         <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I48">
         <v>95</v>
@@ -4420,7 +4420,7 @@
         <v>85</v>
       </c>
       <c r="H56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I56">
         <v>12</v>
@@ -4485,7 +4485,7 @@
         <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I57">
         <v>95</v>
@@ -5005,7 +5005,7 @@
         <v>85</v>
       </c>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I65">
         <v>12</v>
@@ -5070,7 +5070,7 @@
         <v>86</v>
       </c>
       <c r="H66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I66">
         <v>95</v>
@@ -5590,7 +5590,7 @@
         <v>85</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I74">
         <v>12</v>
@@ -5655,7 +5655,7 @@
         <v>86</v>
       </c>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I75">
         <v>95</v>
@@ -6175,7 +6175,7 @@
         <v>85</v>
       </c>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I83">
         <v>12</v>
@@ -6240,7 +6240,7 @@
         <v>86</v>
       </c>
       <c r="H84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I84">
         <v>95</v>
@@ -6760,7 +6760,7 @@
         <v>85</v>
       </c>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I92">
         <v>12</v>
@@ -6825,7 +6825,7 @@
         <v>86</v>
       </c>
       <c r="H93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I93">
         <v>95</v>
@@ -7345,7 +7345,7 @@
         <v>85</v>
       </c>
       <c r="H101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I101">
         <v>12</v>
@@ -7410,7 +7410,7 @@
         <v>86</v>
       </c>
       <c r="H102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I102">
         <v>95</v>
@@ -7930,7 +7930,7 @@
         <v>85</v>
       </c>
       <c r="H110" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I110">
         <v>12</v>
@@ -7995,7 +7995,7 @@
         <v>86</v>
       </c>
       <c r="H111" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I111">
         <v>95</v>
@@ -8515,7 +8515,7 @@
         <v>85</v>
       </c>
       <c r="H119" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I119">
         <v>12</v>
@@ -8580,7 +8580,7 @@
         <v>86</v>
       </c>
       <c r="H120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I120">
         <v>95</v>
@@ -9100,7 +9100,7 @@
         <v>85</v>
       </c>
       <c r="H128" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I128">
         <v>12</v>
@@ -9165,7 +9165,7 @@
         <v>86</v>
       </c>
       <c r="H129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I129">
         <v>95</v>
@@ -9685,7 +9685,7 @@
         <v>85</v>
       </c>
       <c r="H137" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I137">
         <v>12</v>
@@ -9750,7 +9750,7 @@
         <v>86</v>
       </c>
       <c r="H138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I138">
         <v>95</v>
@@ -10270,7 +10270,7 @@
         <v>85</v>
       </c>
       <c r="H146" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I146">
         <v>12</v>
@@ -10335,7 +10335,7 @@
         <v>86</v>
       </c>
       <c r="H147" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I147">
         <v>95</v>
@@ -10855,7 +10855,7 @@
         <v>85</v>
       </c>
       <c r="H155" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I155">
         <v>12</v>
@@ -10920,7 +10920,7 @@
         <v>86</v>
       </c>
       <c r="H156" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I156">
         <v>95</v>
